--- a/lecNote/06_이미지처리/1128_컨볼루션.xlsx
+++ b/lecNote/06_이미지처리/1128_컨볼루션.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai\lecNote\06_이미지처리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D00B582-2300-4C75-8483-F4B45B54CEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89707136-7556-49E2-AD0C-E039EB3CF23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -76,18 +76,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -278,7 +266,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -342,14 +330,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,7 +664,7 @@
   <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:AH14"/>
+      <selection activeCell="AE2" sqref="AE1:AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.796875" defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
@@ -645,21 +675,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2">
         <v>0</v>
@@ -687,43 +717,43 @@
       <c r="AI1" s="13"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23">
-        <v>1</v>
-      </c>
-      <c r="D2" s="23">
-        <v>1</v>
-      </c>
-      <c r="E2" s="23">
-        <v>1</v>
-      </c>
-      <c r="F2" s="23">
-        <v>1</v>
-      </c>
-      <c r="G2" s="23">
-        <v>1</v>
-      </c>
-      <c r="H2" s="23">
-        <v>1</v>
-      </c>
-      <c r="I2" s="23">
-        <v>1</v>
-      </c>
-      <c r="J2" s="23">
-        <v>1</v>
-      </c>
-      <c r="K2" s="23">
-        <v>1</v>
-      </c>
-      <c r="L2" s="23">
-        <v>1</v>
-      </c>
-      <c r="M2" s="23">
-        <v>1</v>
-      </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20">
+        <v>1</v>
+      </c>
+      <c r="E2" s="20">
+        <v>1</v>
+      </c>
+      <c r="F2" s="20">
+        <v>1</v>
+      </c>
+      <c r="G2" s="20">
+        <v>1</v>
+      </c>
+      <c r="H2" s="20">
+        <v>1</v>
+      </c>
+      <c r="I2" s="20">
+        <v>1</v>
+      </c>
+      <c r="J2" s="20">
+        <v>1</v>
+      </c>
+      <c r="K2" s="20">
+        <v>1</v>
+      </c>
+      <c r="L2" s="20">
+        <v>1</v>
+      </c>
+      <c r="M2" s="20">
+        <v>1</v>
+      </c>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="2">
         <v>1</v>
@@ -777,23 +807,23 @@
       <c r="AI2" s="17"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23">
-        <v>1</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20">
+        <v>1</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="2">
         <v>0</v>
@@ -827,14 +857,14 @@
       <c r="AI3" s="17"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23">
-        <v>1</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20">
+        <v>1</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
@@ -867,21 +897,21 @@
       <c r="AI4" s="17"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23">
-        <v>1</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21">
+        <v>1</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
       <c r="Q5" t="s">
@@ -930,15 +960,15 @@
       <c r="H6" s="21">
         <v>1</v>
       </c>
-      <c r="I6" s="22">
-        <v>1</v>
-      </c>
-      <c r="J6" s="22">
-        <v>1</v>
-      </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
+      <c r="I6" s="21">
+        <v>1</v>
+      </c>
+      <c r="J6" s="21">
+        <v>1</v>
+      </c>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
       <c r="U6" s="14"/>
@@ -986,15 +1016,15 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22">
-        <v>1</v>
-      </c>
-      <c r="L7" s="23">
-        <v>1</v>
-      </c>
-      <c r="M7" s="23"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21">
+        <v>1</v>
+      </c>
+      <c r="L7" s="21">
+        <v>1</v>
+      </c>
+      <c r="M7" s="21"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
       <c r="Q7" t="s">
@@ -1033,11 +1063,11 @@
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20">
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21">
         <v>1</v>
       </c>
       <c r="N8" s="20"/>
@@ -1065,19 +1095,19 @@
       <c r="AI8" s="17"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21">
         <v>1</v>
       </c>
       <c r="N9" s="20"/>
@@ -1377,217 +1407,454 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T21" sqref="A1:T21"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="13" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.796875" customWidth="1"/>
+    <col min="2" max="13" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.296875" customWidth="1"/>
     <col min="15" max="26" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A1" s="22">
+        <v>1</v>
+      </c>
+      <c r="B1" s="23">
+        <v>2</v>
+      </c>
+      <c r="C1" s="23">
+        <v>3</v>
+      </c>
+      <c r="D1" s="23">
+        <v>3</v>
+      </c>
+      <c r="E1" s="23">
+        <v>3</v>
+      </c>
+      <c r="F1" s="23">
+        <v>3</v>
+      </c>
+      <c r="G1" s="23">
+        <v>3</v>
+      </c>
+      <c r="H1" s="23">
+        <v>3</v>
+      </c>
+      <c r="I1" s="23">
+        <v>3</v>
+      </c>
+      <c r="J1" s="23">
+        <v>3</v>
+      </c>
+      <c r="K1" s="23">
+        <v>3</v>
+      </c>
+      <c r="L1" s="23">
+        <v>2</v>
+      </c>
+      <c r="M1" s="24">
+        <v>1</v>
+      </c>
+      <c r="U1" s="31">
+        <v>2</v>
+      </c>
+      <c r="V1" s="5">
+        <v>3</v>
+      </c>
+      <c r="W1" s="5">
+        <v>3</v>
+      </c>
+      <c r="X1" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26">
+        <v>1</v>
+      </c>
+      <c r="C2" s="26">
+        <v>1</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="27"/>
+      <c r="U2" s="32">
+        <v>1</v>
+      </c>
+      <c r="V2" s="33">
+        <v>1</v>
+      </c>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="34"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A3" s="25">
+        <v>1</v>
+      </c>
+      <c r="B3" s="26">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26">
+        <v>1</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="27"/>
+      <c r="U3" s="32">
+        <v>2</v>
+      </c>
+      <c r="V3" s="33">
+        <v>3</v>
+      </c>
+      <c r="W3" s="33">
+        <v>3</v>
+      </c>
+      <c r="X3" s="33">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="33">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="33">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A4" s="25">
+        <v>1</v>
+      </c>
+      <c r="B4" s="26">
+        <v>1</v>
+      </c>
+      <c r="C4" s="26">
+        <v>1</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="27"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A5" s="25">
+        <v>1</v>
+      </c>
+      <c r="B5" s="26">
+        <v>2</v>
+      </c>
+      <c r="C5" s="26">
+        <v>3</v>
+      </c>
+      <c r="D5" s="26">
+        <v>3</v>
+      </c>
+      <c r="E5" s="26">
+        <v>3</v>
+      </c>
+      <c r="F5" s="26">
+        <v>3</v>
+      </c>
+      <c r="G5" s="26">
+        <v>3</v>
+      </c>
+      <c r="H5" s="26">
+        <v>3</v>
+      </c>
+      <c r="I5" s="26">
+        <v>2</v>
+      </c>
+      <c r="J5" s="26">
+        <v>1</v>
+      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="27"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26">
+        <v>1</v>
+      </c>
+      <c r="J6" s="26">
+        <v>2</v>
+      </c>
+      <c r="K6" s="26">
+        <v>2</v>
+      </c>
+      <c r="L6" s="26">
+        <v>1</v>
+      </c>
+      <c r="M6" s="27"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="33">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26">
+        <v>1</v>
+      </c>
+      <c r="L7" s="26">
+        <v>1</v>
+      </c>
+      <c r="M7" s="27">
+        <v>1</v>
+      </c>
+      <c r="U7" s="35">
+        <v>2</v>
+      </c>
+      <c r="V7" s="36">
+        <v>3</v>
+      </c>
+      <c r="W7" s="36">
+        <v>3</v>
+      </c>
+      <c r="X7" s="36">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="36">
+        <v>3</v>
+      </c>
+      <c r="Z7" s="36">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26">
+        <v>1</v>
+      </c>
+      <c r="L8" s="26">
+        <v>1</v>
+      </c>
+      <c r="M8" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26">
+        <v>1</v>
+      </c>
+      <c r="L9" s="26">
+        <v>1</v>
+      </c>
+      <c r="M9" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26">
+        <v>1</v>
+      </c>
+      <c r="L10" s="26">
+        <v>1</v>
+      </c>
+      <c r="M10" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26">
+        <v>1</v>
+      </c>
+      <c r="L11" s="26">
+        <v>1</v>
+      </c>
+      <c r="M11" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26">
+        <v>1</v>
+      </c>
+      <c r="K12" s="26">
+        <v>1</v>
+      </c>
+      <c r="L12" s="26">
+        <v>1</v>
+      </c>
+      <c r="M12" s="27"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A13" s="28">
+        <v>1</v>
+      </c>
+      <c r="B13" s="29">
+        <v>2</v>
+      </c>
+      <c r="C13" s="29">
+        <v>3</v>
+      </c>
+      <c r="D13" s="29">
+        <v>3</v>
+      </c>
+      <c r="E13" s="29">
+        <v>3</v>
+      </c>
+      <c r="F13" s="29">
+        <v>3</v>
+      </c>
+      <c r="G13" s="29">
+        <v>3</v>
+      </c>
+      <c r="H13" s="29">
+        <v>3</v>
+      </c>
+      <c r="I13" s="29">
+        <v>3</v>
+      </c>
+      <c r="J13" s="29">
+        <v>2</v>
+      </c>
+      <c r="K13" s="29">
+        <v>1</v>
+      </c>
+      <c r="L13" s="29"/>
+      <c r="M13" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
